--- a/biology/Botanique/Véronique_en_épi/Véronique_en_épi.xlsx
+++ b/biology/Botanique/Véronique_en_épi/Véronique_en_épi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_en_%C3%A9pi</t>
+          <t>Véronique_en_épi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Veronica spicata
 La véronique en épi (Veronica spicata L.) est une petite plante appartenant au genre Veronica et à la famille des plantaginacées selon la classification APG II (les véroniques étaient classées auparavant dans les scrophulariacées). Elle pousse dans les lieux plutôt secs et calcaires, souvent en montagne, et se reconnaît à ses épis bleu-violet portant de nombreuses fleurs.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_en_%C3%A9pi</t>
+          <t>Véronique_en_épi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,14 +526,124 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Écologie et habitat
-Plante vivace poussant surtout en montagne, plus rarement à basse altitude (100 à 2050 mètres). En France, on la rencontre surtout dans les Alpes et les Pyrénées. Rare ailleurs, elle est protégée en Alsace, en Auvergne, en Basse-Normandie et en Limousin. Elle pousse aussi en Grande-Bretagne, en Allemagne et en Scandinavie, et est fréquemment plantée dans les jardins. Nette préférence pour les sols calcaires et secs (prés, lisière des forêts, pentes rocheuses). Floraison de juillet à octobre-novembre.
-Morphologie générale et végétative
-Plante herbacée assez basse, velue, formant des touffes souvent tapissantes, à souche rampante et à tige érigée. Feuilles sessiles ou à très court pétiole, opposées, ovales à lancéolées, à dents émoussées (les feuilles supérieures sont souvent entières).
-Morphologie florale
-Fleurs hermaphrodites groupées en longs épis très denses. Court calice à quatre sépales. Corolle bleu-violet à long tube, les quatre pétales ayant presque l'apparence de deux lèvres. Deux étamines et un style dépassant largement la corolle. Pollinisation entomogame.
-Fruit et graines
-Le fruit est une capsule globuleuse échancrée, plus ou moins velue. Dissémination épizoochore.
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante vivace poussant surtout en montagne, plus rarement à basse altitude (100 à 2050 mètres). En France, on la rencontre surtout dans les Alpes et les Pyrénées. Rare ailleurs, elle est protégée en Alsace, en Auvergne, en Basse-Normandie et en Limousin. Elle pousse aussi en Grande-Bretagne, en Allemagne et en Scandinavie, et est fréquemment plantée dans les jardins. Nette préférence pour les sols calcaires et secs (prés, lisière des forêts, pentes rocheuses). Floraison de juillet à octobre-novembre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Véronique_en_épi</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_en_%C3%A9pi</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Morphologie générale et végétative</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante herbacée assez basse, velue, formant des touffes souvent tapissantes, à souche rampante et à tige érigée. Feuilles sessiles ou à très court pétiole, opposées, ovales à lancéolées, à dents émoussées (les feuilles supérieures sont souvent entières).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Véronique_en_épi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_en_%C3%A9pi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Morphologie florale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fleurs hermaphrodites groupées en longs épis très denses. Court calice à quatre sépales. Corolle bleu-violet à long tube, les quatre pétales ayant presque l'apparence de deux lèvres. Deux étamines et un style dépassant largement la corolle. Pollinisation entomogame.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Véronique_en_épi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_en_%C3%A9pi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruit et graines</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est une capsule globuleuse échancrée, plus ou moins velue. Dissémination épizoochore.
 </t>
         </is>
       </c>
